--- a/MiniProject_TripAutomation/excel-files/Cab_Details1.xlsx
+++ b/MiniProject_TripAutomation/excel-files/Cab_Details1.xlsx
@@ -23,7 +23,7 @@
     <t>Suv</t>
   </si>
   <si>
-    <t>Rs. 8,878</t>
+    <t>Rs. 8,731</t>
   </si>
 </sst>
 </file>

--- a/MiniProject_TripAutomation/excel-files/Cab_Details1.xlsx
+++ b/MiniProject_TripAutomation/excel-files/Cab_Details1.xlsx
@@ -23,7 +23,7 @@
     <t>Suv</t>
   </si>
   <si>
-    <t>Rs. 8,731</t>
+    <t>Rs. 15,029</t>
   </si>
 </sst>
 </file>
